--- a/bin/summary_table/RESULT_SUMMARY_GLSZM.xlsx
+++ b/bin/summary_table/RESULT_SUMMARY_GLSZM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmatt\Documents\MIALab\bin\summary_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC58F481-E725-49DB-9604-00A3F87F6691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFAC4D-021F-4845-A272-53D291F64415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3CEA872F-7358-49E8-9EAA-A7ECE4E8452B}"/>
   </bookViews>
@@ -36,20 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Baseline</t>
   </si>
   <si>
-    <t>DICE</t>
-  </si>
-  <si>
     <t>HDRFDST</t>
   </si>
   <si>
-    <t>GLCM</t>
-  </si>
-  <si>
     <t>Amygdala</t>
   </si>
   <si>
@@ -111,17 +105,31 @@
   </si>
   <si>
     <t>ZoneVariance</t>
+  </si>
+  <si>
+    <t>FOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICE </t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,25 +146,44 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -503,62 +530,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -874,680 +931,1279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236EB72D-A019-4EC3-8BA8-BEF5E71859F2}">
-  <dimension ref="D4:N23"/>
+  <dimension ref="D3:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
+    <row r="3" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="26" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="14"/>
     </row>
-    <row r="6" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
+    <row r="6" spans="4:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.51696048999999999</v>
+      </c>
+      <c r="F7" s="34">
+        <v>3.4682060000000001E-2</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0.50636219000000005</v>
+      </c>
+      <c r="H7" s="34">
+        <v>2.9248349999999999E-2</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.76055808000000003</v>
+      </c>
+      <c r="J7" s="34">
+        <v>2.794812E-2</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.80650959</v>
+      </c>
+      <c r="L7" s="34">
+        <v>2.0555219999999999E-2</v>
+      </c>
+      <c r="M7" s="34">
+        <v>0.70931613000000004</v>
+      </c>
+      <c r="N7" s="35">
+        <v>8.5145299999999993E-3</v>
+      </c>
+      <c r="O7" s="36">
+        <v>13.230092089999999</v>
+      </c>
+      <c r="P7" s="34">
+        <v>1.40166445</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>13.46717583</v>
+      </c>
+      <c r="R7" s="34">
+        <v>1.0654460100000001</v>
+      </c>
+      <c r="S7" s="34">
+        <v>16.39270084</v>
+      </c>
+      <c r="T7" s="34">
+        <v>1.4419982899999999</v>
+      </c>
+      <c r="U7" s="34">
+        <v>3.86999819</v>
+      </c>
+      <c r="V7" s="34">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W7" s="34">
+        <v>2.4873158399999999</v>
+      </c>
+      <c r="X7" s="37">
+        <v>0.64285292999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="E8" s="38">
+        <v>0.52619612999999998</v>
+      </c>
+      <c r="F8" s="24">
+        <v>3.5939260000000001E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.50572912999999997</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2.816747E-2</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0.75288732000000003</v>
+      </c>
+      <c r="J8" s="24">
+        <v>2.2134109999999999E-2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.80600048000000002</v>
+      </c>
+      <c r="L8" s="24">
+        <v>2.1198270000000002E-2</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.70647369000000004</v>
+      </c>
+      <c r="N8" s="25">
+        <v>9.3737100000000004E-3</v>
+      </c>
+      <c r="O8" s="39">
+        <v>12.474200870000001</v>
+      </c>
+      <c r="P8" s="24">
+        <v>1.33951961</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>13.733639480000001</v>
+      </c>
+      <c r="R8" s="24">
+        <v>0.99355249000000001</v>
+      </c>
+      <c r="S8" s="41">
+        <v>15.51998083</v>
+      </c>
+      <c r="T8" s="24">
+        <v>9.3877683800000007</v>
+      </c>
+      <c r="U8" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V8" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W8" s="24">
+        <v>2.6099931199999999</v>
+      </c>
+      <c r="X8" s="26">
+        <v>0.62284501000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>8</v>
+      <c r="E9" s="38">
+        <v>0.52619612999999998</v>
+      </c>
+      <c r="F9" s="24">
+        <v>3.5939260000000001E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.50572912999999997</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2.816747E-2</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.75288732000000003</v>
+      </c>
+      <c r="J9" s="24">
+        <v>2.2134109999999999E-2</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.80600048000000002</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2.1198270000000002E-2</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.70647369000000004</v>
+      </c>
+      <c r="N9" s="25">
+        <v>9.3737100000000004E-3</v>
+      </c>
+      <c r="O9" s="39">
+        <v>12.474200870000001</v>
+      </c>
+      <c r="P9" s="24">
+        <v>1.33951961</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>13.733639480000001</v>
+      </c>
+      <c r="R9" s="24">
+        <v>0.99355249000000001</v>
+      </c>
+      <c r="S9" s="41">
+        <v>15.51998083</v>
+      </c>
+      <c r="T9" s="24">
+        <v>9.3877683800000007</v>
+      </c>
+      <c r="U9" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V9" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W9" s="24">
+        <v>2.6099931199999999</v>
+      </c>
+      <c r="X9" s="26">
+        <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="7" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.51696048999999999</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.50636219000000005</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.76055808000000003</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.80650959</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.70931613000000004</v>
-      </c>
-      <c r="J7" s="28">
-        <v>13.230092089999999</v>
-      </c>
-      <c r="K7" s="13">
-        <v>13.46717583</v>
-      </c>
-      <c r="L7" s="13">
-        <v>16.39270084</v>
-      </c>
-      <c r="M7" s="13">
-        <v>3.86999819</v>
-      </c>
-      <c r="N7" s="14">
-        <v>2.4873158399999999</v>
+    <row r="10" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.52435980999999998</v>
+      </c>
+      <c r="F10" s="24">
+        <v>3.6377159999999999E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.50484245000000005</v>
+      </c>
+      <c r="H10" s="24">
+        <v>2.8636640000000001E-2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.75236378000000004</v>
+      </c>
+      <c r="J10" s="24">
+        <v>2.2545539999999999E-2</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.80598696000000003</v>
+      </c>
+      <c r="L10" s="24">
+        <v>2.1215399999999999E-2</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.70662893999999998</v>
+      </c>
+      <c r="N10" s="25">
+        <v>9.4203499999999992E-3</v>
+      </c>
+      <c r="O10" s="39">
+        <v>12.500025770000001</v>
+      </c>
+      <c r="P10" s="24">
+        <v>1.4315571300000001</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>13.751179130000001</v>
+      </c>
+      <c r="R10" s="24">
+        <v>1.0025331099999999</v>
+      </c>
+      <c r="S10" s="41">
+        <v>15.666193440000001</v>
+      </c>
+      <c r="T10" s="24">
+        <v>9.5168473299999992</v>
+      </c>
+      <c r="U10" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V10" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W10" s="24">
+        <v>2.55587162</v>
+      </c>
+      <c r="X10" s="26">
+        <v>0.60623450999999995</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="15">
+    <row r="11" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="38">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F11" s="24">
+        <v>3.5939260000000001E-2</v>
+      </c>
+      <c r="G11" s="24">
         <v>0.50572912999999997</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H11" s="24">
+        <v>2.816747E-2</v>
+      </c>
+      <c r="I11" s="24">
         <v>0.75288732000000003</v>
       </c>
-      <c r="H8" s="16">
+      <c r="J11" s="24">
+        <v>2.2134109999999999E-2</v>
+      </c>
+      <c r="K11" s="24">
         <v>0.80600048000000002</v>
       </c>
-      <c r="I8" s="24">
+      <c r="L11" s="24">
+        <v>2.1198270000000002E-2</v>
+      </c>
+      <c r="M11" s="24">
         <v>0.70647369000000004</v>
       </c>
-      <c r="J8" s="29">
+      <c r="N11" s="25">
+        <v>9.3737100000000004E-3</v>
+      </c>
+      <c r="O11" s="39">
         <v>12.474200870000001</v>
       </c>
-      <c r="K8" s="16">
+      <c r="P11" s="24">
+        <v>1.33951961</v>
+      </c>
+      <c r="Q11" s="24">
         <v>13.733639480000001</v>
       </c>
-      <c r="L8" s="16">
+      <c r="R11" s="24">
+        <v>0.99355249000000001</v>
+      </c>
+      <c r="S11" s="41">
         <v>15.51998083</v>
       </c>
-      <c r="M8" s="16">
+      <c r="T11" s="24">
+        <v>9.3877683800000007</v>
+      </c>
+      <c r="U11" s="24">
         <v>3.8836088000000002</v>
       </c>
-      <c r="N8" s="17">
+      <c r="V11" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W11" s="24">
         <v>2.6099931199999999</v>
       </c>
+      <c r="X11" s="26">
+        <v>0.62284501000000003</v>
+      </c>
     </row>
-    <row r="9" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="15">
+    <row r="12" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.52617051000000004</v>
+      </c>
+      <c r="F12" s="24">
+        <v>3.634979E-2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.50163913999999998</v>
+      </c>
+      <c r="H12" s="24">
+        <v>2.4399239999999999E-2</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.75053376999999999</v>
+      </c>
+      <c r="J12" s="24">
+        <v>2.1395290000000001E-2</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.80567182999999998</v>
+      </c>
+      <c r="L12" s="24">
+        <v>2.1284919999999999E-2</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0.70766766999999997</v>
+      </c>
+      <c r="N12" s="25">
+        <v>9.2426699999999997E-3</v>
+      </c>
+      <c r="O12" s="39">
+        <v>12.80530819</v>
+      </c>
+      <c r="P12" s="24">
+        <v>1.42270242</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>13.4684689</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.94886535999999999</v>
+      </c>
+      <c r="S12" s="24">
+        <v>17.02282155</v>
+      </c>
+      <c r="T12" s="24">
+        <v>9.6344977299999996</v>
+      </c>
+      <c r="U12" s="24">
+        <v>3.9094430600000001</v>
+      </c>
+      <c r="V12" s="24">
+        <v>0.34096184000000002</v>
+      </c>
+      <c r="W12" s="24">
+        <v>2.53226482</v>
+      </c>
+      <c r="X12" s="26">
+        <v>0.62260331000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.52617051000000004</v>
+      </c>
+      <c r="F13" s="24">
+        <v>3.634979E-2</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.50163913999999998</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2.4399239999999999E-2</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.75053376999999999</v>
+      </c>
+      <c r="J13" s="24">
+        <v>2.1395290000000001E-2</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.80567182999999998</v>
+      </c>
+      <c r="L13" s="24">
+        <v>2.1284919999999999E-2</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0.70766766999999997</v>
+      </c>
+      <c r="N13" s="25">
+        <v>9.2426699999999997E-3</v>
+      </c>
+      <c r="O13" s="39">
+        <v>12.80530819</v>
+      </c>
+      <c r="P13" s="24">
+        <v>1.42270242</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>13.4684689</v>
+      </c>
+      <c r="R13" s="24">
+        <v>0.94886535999999999</v>
+      </c>
+      <c r="S13" s="24">
+        <v>17.02282155</v>
+      </c>
+      <c r="T13" s="24">
+        <v>9.6344977299999996</v>
+      </c>
+      <c r="U13" s="24">
+        <v>3.9094430600000001</v>
+      </c>
+      <c r="V13" s="24">
+        <v>0.34096184000000002</v>
+      </c>
+      <c r="W13" s="24">
+        <v>2.53226482</v>
+      </c>
+      <c r="X13" s="26">
+        <v>0.62260331000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.52617051000000004</v>
+      </c>
+      <c r="F14" s="24">
+        <v>3.634979E-2</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.50163913999999998</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2.4399239999999999E-2</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.75053376999999999</v>
+      </c>
+      <c r="J14" s="24">
+        <v>2.1395290000000001E-2</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.80567182999999998</v>
+      </c>
+      <c r="L14" s="24">
+        <v>2.1284919999999999E-2</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.70766766999999997</v>
+      </c>
+      <c r="N14" s="25">
+        <v>9.2426699999999997E-3</v>
+      </c>
+      <c r="O14" s="39">
+        <v>12.80530819</v>
+      </c>
+      <c r="P14" s="24">
+        <v>1.42270242</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>13.4684689</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0.94886535999999999</v>
+      </c>
+      <c r="S14" s="24">
+        <v>17.02282155</v>
+      </c>
+      <c r="T14" s="24">
+        <v>9.6344977299999996</v>
+      </c>
+      <c r="U14" s="24">
+        <v>3.9094430600000001</v>
+      </c>
+      <c r="V14" s="24">
+        <v>0.34096184000000002</v>
+      </c>
+      <c r="W14" s="24">
+        <v>2.53226482</v>
+      </c>
+      <c r="X14" s="26">
+        <v>0.62260331000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="38">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F15" s="24">
+        <v>3.5939260000000001E-2</v>
+      </c>
+      <c r="G15" s="24">
         <v>0.50572912999999997</v>
       </c>
-      <c r="G9" s="16">
+      <c r="H15" s="24">
+        <v>2.816747E-2</v>
+      </c>
+      <c r="I15" s="24">
         <v>0.75288732000000003</v>
       </c>
-      <c r="H9" s="16">
+      <c r="J15" s="24">
+        <v>2.2134109999999999E-2</v>
+      </c>
+      <c r="K15" s="24">
         <v>0.80600048000000002</v>
       </c>
-      <c r="I9" s="24">
+      <c r="L15" s="24">
+        <v>2.1198270000000002E-2</v>
+      </c>
+      <c r="M15" s="24">
         <v>0.70647369000000004</v>
       </c>
-      <c r="J9" s="29">
+      <c r="N15" s="25">
+        <v>9.3737100000000004E-3</v>
+      </c>
+      <c r="O15" s="39">
         <v>12.474200870000001</v>
       </c>
-      <c r="K9" s="16">
+      <c r="P15" s="24">
+        <v>1.33951961</v>
+      </c>
+      <c r="Q15" s="24">
         <v>13.733639480000001</v>
       </c>
-      <c r="L9" s="16">
+      <c r="R15" s="24">
+        <v>0.99355249000000001</v>
+      </c>
+      <c r="S15" s="41">
         <v>15.51998083</v>
       </c>
-      <c r="M9" s="16">
+      <c r="T15" s="24">
+        <v>9.3877683800000007</v>
+      </c>
+      <c r="U15" s="24">
         <v>3.8836088000000002</v>
       </c>
-      <c r="N9" s="17">
+      <c r="V15" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W15" s="24">
         <v>2.6099931199999999</v>
       </c>
+      <c r="X15" s="26">
+        <v>0.62284501000000003</v>
+      </c>
     </row>
-    <row r="10" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="15">
+    <row r="16" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.52619612999999998</v>
+      </c>
+      <c r="F16" s="24">
+        <v>3.5939260000000001E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.50572912999999997</v>
+      </c>
+      <c r="H16" s="24">
+        <v>2.816747E-2</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0.75288732000000003</v>
+      </c>
+      <c r="J16" s="24">
+        <v>2.2134109999999999E-2</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0.80600048000000002</v>
+      </c>
+      <c r="L16" s="24">
+        <v>2.1198270000000002E-2</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.70647369000000004</v>
+      </c>
+      <c r="N16" s="25">
+        <v>9.3737100000000004E-3</v>
+      </c>
+      <c r="O16" s="39">
+        <v>12.474200870000001</v>
+      </c>
+      <c r="P16" s="24">
+        <v>1.33951961</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>13.733639480000001</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0.99355249000000001</v>
+      </c>
+      <c r="S16" s="41">
+        <v>15.51998083</v>
+      </c>
+      <c r="T16" s="24">
+        <v>9.3877683800000007</v>
+      </c>
+      <c r="U16" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V16" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W16" s="24">
+        <v>2.6099931199999999</v>
+      </c>
+      <c r="X16" s="26">
+        <v>0.62284501000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0.52619612999999998</v>
+      </c>
+      <c r="F17" s="24">
+        <v>3.5939260000000001E-2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.50572912999999997</v>
+      </c>
+      <c r="H17" s="24">
+        <v>2.816747E-2</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.75288732000000003</v>
+      </c>
+      <c r="J17" s="24">
+        <v>2.2134109999999999E-2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0.80600048000000002</v>
+      </c>
+      <c r="L17" s="24">
+        <v>2.1198270000000002E-2</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0.70647369000000004</v>
+      </c>
+      <c r="N17" s="25">
+        <v>9.3737100000000004E-3</v>
+      </c>
+      <c r="O17" s="39">
+        <v>12.474200870000001</v>
+      </c>
+      <c r="P17" s="24">
+        <v>1.33951961</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>13.733639480000001</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0.99355249000000001</v>
+      </c>
+      <c r="S17" s="41">
+        <v>15.51998083</v>
+      </c>
+      <c r="T17" s="24">
+        <v>9.3877683800000007</v>
+      </c>
+      <c r="U17" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V17" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W17" s="24">
+        <v>2.6099931199999999</v>
+      </c>
+      <c r="X17" s="26">
+        <v>0.62284501000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.52423215999999995</v>
+      </c>
+      <c r="F18" s="24">
+        <v>3.5511420000000002E-2</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.50606633000000001</v>
+      </c>
+      <c r="H18" s="24">
+        <v>2.8109450000000001E-2</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0.74971580000000004</v>
+      </c>
+      <c r="J18" s="24">
+        <v>2.1768740000000002E-2</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.80604909000000002</v>
+      </c>
+      <c r="L18" s="24">
+        <v>2.1407249999999999E-2</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0.70727633999999995</v>
+      </c>
+      <c r="N18" s="25">
+        <v>9.43658E-3</v>
+      </c>
+      <c r="O18" s="39">
+        <v>12.384133289999999</v>
+      </c>
+      <c r="P18" s="24">
+        <v>1.3539729</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>13.54907079</v>
+      </c>
+      <c r="R18" s="24">
+        <v>1.01127678</v>
+      </c>
+      <c r="S18" s="24">
+        <v>16.64851951</v>
+      </c>
+      <c r="T18" s="24">
+        <v>9.2155736699999995</v>
+      </c>
+      <c r="U18" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V18" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W18" s="24">
+        <v>2.4943710800000001</v>
+      </c>
+      <c r="X18" s="26">
+        <v>0.61490886</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.52423215999999995</v>
+      </c>
+      <c r="F19" s="24">
+        <v>3.5511420000000002E-2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0.50606633000000001</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2.8109450000000001E-2</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0.74971580000000004</v>
+      </c>
+      <c r="J19" s="24">
+        <v>2.1768740000000002E-2</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.80604909000000002</v>
+      </c>
+      <c r="L19" s="24">
+        <v>2.1407249999999999E-2</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0.70727633999999995</v>
+      </c>
+      <c r="N19" s="25">
+        <v>9.43658E-3</v>
+      </c>
+      <c r="O19" s="39">
+        <v>12.384133289999999</v>
+      </c>
+      <c r="P19" s="24">
+        <v>1.3539729</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>13.54907079</v>
+      </c>
+      <c r="R19" s="24">
+        <v>1.01127678</v>
+      </c>
+      <c r="S19" s="24">
+        <v>16.64851951</v>
+      </c>
+      <c r="T19" s="24">
+        <v>9.2155736699999995</v>
+      </c>
+      <c r="U19" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V19" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W19" s="24">
+        <v>2.4943710800000001</v>
+      </c>
+      <c r="X19" s="26">
+        <v>0.61490886</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.52423215999999995</v>
+      </c>
+      <c r="F20" s="24">
+        <v>3.5511420000000002E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0.50606633000000001</v>
+      </c>
+      <c r="H20" s="24">
+        <v>2.8109450000000001E-2</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.74971580000000004</v>
+      </c>
+      <c r="J20" s="24">
+        <v>2.1768740000000002E-2</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0.80604909000000002</v>
+      </c>
+      <c r="L20" s="24">
+        <v>2.1407249999999999E-2</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0.70727633999999995</v>
+      </c>
+      <c r="N20" s="25">
+        <v>9.43658E-3</v>
+      </c>
+      <c r="O20" s="39">
+        <v>12.384133289999999</v>
+      </c>
+      <c r="P20" s="24">
+        <v>1.3539729</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>13.54907079</v>
+      </c>
+      <c r="R20" s="24">
+        <v>1.01127678</v>
+      </c>
+      <c r="S20" s="24">
+        <v>16.64851951</v>
+      </c>
+      <c r="T20" s="24">
+        <v>9.2155736699999995</v>
+      </c>
+      <c r="U20" s="24">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V20" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W20" s="24">
+        <v>2.4943710800000001</v>
+      </c>
+      <c r="X20" s="26">
+        <v>0.61490886</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="23">
         <v>0.52435980999999998</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F21" s="24">
+        <v>3.6377159999999999E-2</v>
+      </c>
+      <c r="G21" s="24">
         <v>0.50484245000000005</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H21" s="24">
+        <v>2.8636640000000001E-2</v>
+      </c>
+      <c r="I21" s="24">
         <v>0.75236378000000004</v>
       </c>
-      <c r="H10" s="16">
+      <c r="J21" s="24">
+        <v>2.2545539999999999E-2</v>
+      </c>
+      <c r="K21" s="24">
         <v>0.80598696000000003</v>
       </c>
-      <c r="I10" s="24">
+      <c r="L21" s="24">
+        <v>2.1215399999999999E-2</v>
+      </c>
+      <c r="M21" s="24">
         <v>0.70662893999999998</v>
       </c>
-      <c r="J10" s="29">
+      <c r="N21" s="25">
+        <v>9.4203499999999992E-3</v>
+      </c>
+      <c r="O21" s="39">
         <v>12.500025770000001</v>
       </c>
-      <c r="K10" s="16">
+      <c r="P21" s="24">
+        <v>1.4315571300000001</v>
+      </c>
+      <c r="Q21" s="24">
         <v>13.751179130000001</v>
       </c>
-      <c r="L10" s="16">
+      <c r="R21" s="24">
+        <v>1.0025331099999999</v>
+      </c>
+      <c r="S21" s="41">
         <v>15.666193440000001</v>
       </c>
-      <c r="M10" s="16">
+      <c r="T21" s="24">
+        <v>9.5168473299999992</v>
+      </c>
+      <c r="U21" s="24">
         <v>3.8836088000000002</v>
       </c>
-      <c r="N10" s="17">
+      <c r="V21" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W21" s="24">
         <v>2.55587162</v>
       </c>
+      <c r="X21" s="26">
+        <v>0.60623450999999995</v>
+      </c>
     </row>
-    <row r="11" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.52619612999999998</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.50572912999999997</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.75288732000000003</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0.80600048000000002</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0.70647369000000004</v>
-      </c>
-      <c r="J11" s="29">
-        <v>12.474200870000001</v>
-      </c>
-      <c r="K11" s="16">
-        <v>13.733639480000001</v>
-      </c>
-      <c r="L11" s="16">
-        <v>15.51998083</v>
-      </c>
-      <c r="M11" s="16">
+    <row r="22" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.52423215999999995</v>
+      </c>
+      <c r="F22" s="24">
+        <v>3.5511420000000002E-2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.50608039000000005</v>
+      </c>
+      <c r="H22" s="24">
+        <v>2.8111319999999999E-2</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0.74971580000000004</v>
+      </c>
+      <c r="J22" s="24">
+        <v>2.1768740000000002E-2</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.80604951999999996</v>
+      </c>
+      <c r="L22" s="24">
+        <v>2.1407269999999999E-2</v>
+      </c>
+      <c r="M22" s="24">
+        <v>0.70728765000000005</v>
+      </c>
+      <c r="N22" s="25">
+        <v>9.43512E-3</v>
+      </c>
+      <c r="O22" s="39">
+        <v>12.384133289999999</v>
+      </c>
+      <c r="P22" s="24">
+        <v>1.3539729</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>13.545274839999999</v>
+      </c>
+      <c r="R22" s="24">
+        <v>1.0126843400000001</v>
+      </c>
+      <c r="S22" s="24">
+        <v>16.64851951</v>
+      </c>
+      <c r="T22" s="24">
+        <v>9.2155736699999995</v>
+      </c>
+      <c r="U22" s="24">
         <v>3.8836088000000002</v>
       </c>
-      <c r="N11" s="17">
-        <v>2.6099931199999999</v>
+      <c r="V22" s="24">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W22" s="24">
+        <v>2.4943710800000001</v>
+      </c>
+      <c r="X22" s="26">
+        <v>0.61490886</v>
       </c>
     </row>
-    <row r="12" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.52617051000000004</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.50163913999999998</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.75053376999999999</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0.80567182999999998</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0.70766766999999997</v>
-      </c>
-      <c r="J12" s="29">
-        <v>12.80530819</v>
-      </c>
-      <c r="K12" s="16">
-        <v>13.4684689</v>
-      </c>
-      <c r="L12" s="16">
-        <v>17.02282155</v>
-      </c>
-      <c r="M12" s="16">
-        <v>3.9094430600000001</v>
-      </c>
-      <c r="N12" s="17">
-        <v>2.53226482</v>
+    <row r="23" spans="4:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0.52435980999999998</v>
+      </c>
+      <c r="F23" s="29">
+        <v>3.6377159999999999E-2</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.50484245000000005</v>
+      </c>
+      <c r="H23" s="29">
+        <v>2.8636640000000001E-2</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0.75236378000000004</v>
+      </c>
+      <c r="J23" s="29">
+        <v>2.2545539999999999E-2</v>
+      </c>
+      <c r="K23" s="29">
+        <v>0.80598696000000003</v>
+      </c>
+      <c r="L23" s="29">
+        <v>2.1215399999999999E-2</v>
+      </c>
+      <c r="M23" s="29">
+        <v>0.70662893999999998</v>
+      </c>
+      <c r="N23" s="30">
+        <v>9.4203499999999992E-3</v>
+      </c>
+      <c r="O23" s="40">
+        <v>12.500025770000001</v>
+      </c>
+      <c r="P23" s="29">
+        <v>1.4315571300000001</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>13.751179130000001</v>
+      </c>
+      <c r="R23" s="29">
+        <v>1.0025331099999999</v>
+      </c>
+      <c r="S23" s="42">
+        <v>15.666193440000001</v>
+      </c>
+      <c r="T23" s="29">
+        <v>9.5168473299999992</v>
+      </c>
+      <c r="U23" s="29">
+        <v>3.8836088000000002</v>
+      </c>
+      <c r="V23" s="29">
+        <v>0.34290335999999999</v>
+      </c>
+      <c r="W23" s="29">
+        <v>2.55587162</v>
+      </c>
+      <c r="X23" s="31">
+        <v>0.60623450999999995</v>
       </c>
     </row>
-    <row r="13" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.52617051000000004</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.50163913999999998</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.75053376999999999</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0.80567182999999998</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0.70766766999999997</v>
-      </c>
-      <c r="J13" s="29">
-        <v>12.80530819</v>
-      </c>
-      <c r="K13" s="16">
-        <v>13.4684689</v>
-      </c>
-      <c r="L13" s="16">
-        <v>17.02282155</v>
-      </c>
-      <c r="M13" s="16">
-        <v>3.9094430600000001</v>
-      </c>
-      <c r="N13" s="17">
-        <v>2.53226482</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.52617051000000004</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.50163913999999998</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.75053376999999999</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0.80567182999999998</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.70766766999999997</v>
-      </c>
-      <c r="J14" s="29">
-        <v>12.80530819</v>
-      </c>
-      <c r="K14" s="16">
-        <v>13.4684689</v>
-      </c>
-      <c r="L14" s="16">
-        <v>17.02282155</v>
-      </c>
-      <c r="M14" s="16">
-        <v>3.9094430600000001</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2.53226482</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.52619612999999998</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.50572912999999997</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.75288732000000003</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0.80600048000000002</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0.70647369000000004</v>
-      </c>
-      <c r="J15" s="29">
-        <v>12.474200870000001</v>
-      </c>
-      <c r="K15" s="16">
-        <v>13.733639480000001</v>
-      </c>
-      <c r="L15" s="16">
-        <v>15.51998083</v>
-      </c>
-      <c r="M15" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N15" s="17">
-        <v>2.6099931199999999</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.52619612999999998</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.50572912999999997</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0.75288732000000003</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0.80600048000000002</v>
-      </c>
-      <c r="I16" s="24">
-        <v>0.70647369000000004</v>
-      </c>
-      <c r="J16" s="29">
-        <v>12.474200870000001</v>
-      </c>
-      <c r="K16" s="16">
-        <v>13.733639480000001</v>
-      </c>
-      <c r="L16" s="16">
-        <v>15.51998083</v>
-      </c>
-      <c r="M16" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N16" s="17">
-        <v>2.6099931199999999</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.52619612999999998</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.50572912999999997</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0.75288732000000003</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0.80600048000000002</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0.70647369000000004</v>
-      </c>
-      <c r="J17" s="29">
-        <v>12.474200870000001</v>
-      </c>
-      <c r="K17" s="16">
-        <v>13.733639480000001</v>
-      </c>
-      <c r="L17" s="16">
-        <v>15.51998083</v>
-      </c>
-      <c r="M17" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N17" s="17">
-        <v>2.6099931199999999</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.52423215999999995</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.50606633000000001</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.74971580000000004</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0.80604909000000002</v>
-      </c>
-      <c r="I18" s="24">
-        <v>0.70727633999999995</v>
-      </c>
-      <c r="J18" s="29">
-        <v>12.384133289999999</v>
-      </c>
-      <c r="K18" s="16">
-        <v>13.54907079</v>
-      </c>
-      <c r="L18" s="16">
-        <v>16.64851951</v>
-      </c>
-      <c r="M18" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N18" s="17">
-        <v>2.4943710800000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.52423215999999995</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.50606633000000001</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0.74971580000000004</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0.80604909000000002</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0.70727633999999995</v>
-      </c>
-      <c r="J19" s="29">
-        <v>12.384133289999999</v>
-      </c>
-      <c r="K19" s="16">
-        <v>13.54907079</v>
-      </c>
-      <c r="L19" s="16">
-        <v>16.64851951</v>
-      </c>
-      <c r="M19" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N19" s="17">
-        <v>2.4943710800000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.52423215999999995</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.50606633000000001</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.74971580000000004</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.80604909000000002</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0.70727633999999995</v>
-      </c>
-      <c r="J20" s="29">
-        <v>12.384133289999999</v>
-      </c>
-      <c r="K20" s="16">
-        <v>13.54907079</v>
-      </c>
-      <c r="L20" s="16">
-        <v>16.64851951</v>
-      </c>
-      <c r="M20" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N20" s="17">
-        <v>2.4943710800000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.52435980999999998</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.50484245000000005</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.75236378000000004</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.80598696000000003</v>
-      </c>
-      <c r="I21" s="24">
-        <v>0.70662893999999998</v>
-      </c>
-      <c r="J21" s="29">
-        <v>12.500025770000001</v>
-      </c>
-      <c r="K21" s="16">
-        <v>13.751179130000001</v>
-      </c>
-      <c r="L21" s="16">
-        <v>15.666193440000001</v>
-      </c>
-      <c r="M21" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N21" s="17">
-        <v>2.55587162</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.52423215999999995</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.50608039000000005</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.74971580000000004</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0.80604951999999996</v>
-      </c>
-      <c r="I22" s="24">
-        <v>0.70728765000000005</v>
-      </c>
-      <c r="J22" s="29">
-        <v>12.384133289999999</v>
-      </c>
-      <c r="K22" s="16">
-        <v>13.545274839999999</v>
-      </c>
-      <c r="L22" s="16">
-        <v>16.64851951</v>
-      </c>
-      <c r="M22" s="16">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N22" s="17">
-        <v>2.4943710800000001</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0.52435980999999998</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.50484245000000005</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0.75236378000000004</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0.80598696000000003</v>
-      </c>
-      <c r="I23" s="25">
-        <v>0.70662893999999998</v>
-      </c>
-      <c r="J23" s="30">
-        <v>12.500025770000001</v>
-      </c>
-      <c r="K23" s="19">
-        <v>13.751179130000001</v>
-      </c>
-      <c r="L23" s="19">
-        <v>15.666193440000001</v>
-      </c>
-      <c r="M23" s="19">
-        <v>3.8836088000000002</v>
-      </c>
-      <c r="N23" s="20">
-        <v>2.55587162</v>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="13">
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/bin/summary_table/RESULT_SUMMARY_GLSZM.xlsx
+++ b/bin/summary_table/RESULT_SUMMARY_GLSZM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmatt\Documents\MIALab\bin\summary_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFAC4D-021F-4845-A272-53D291F64415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9499FB5-4B2E-4FC7-A98A-8929F0F8748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3CEA872F-7358-49E8-9EAA-A7ECE4E8452B}"/>
+    <workbookView xWindow="1680" yWindow="2790" windowWidth="35385" windowHeight="15345" xr2:uid="{3CEA872F-7358-49E8-9EAA-A7ECE4E8452B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>ZoneVariance</t>
   </si>
   <si>
-    <t>FOF</t>
-  </si>
-  <si>
     <t xml:space="preserve">DICE </t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GLSZM</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +157,6 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -532,7 +525,34 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,9 +573,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,48 +591,24 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -934,7 +927,7 @@
   <dimension ref="D3:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,1252 +938,1254 @@
   <sheetData>
     <row r="3" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="7"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" spans="4:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13" t="s">
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="23"/>
+      <c r="S5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13" t="s">
+      <c r="T5" s="23"/>
+      <c r="U5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13" t="s">
+      <c r="V5" s="23"/>
+      <c r="W5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="14"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="7" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D7" s="32" t="s">
+    <row r="7" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="25">
         <v>0.51696048999999999</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="26">
         <v>3.4682060000000001E-2</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="26">
         <v>0.50636219000000005</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="26">
         <v>2.9248349999999999E-2</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="26">
         <v>0.76055808000000003</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="26">
         <v>2.794812E-2</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="26">
         <v>0.80650959</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="26">
         <v>2.0555219999999999E-2</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="26">
         <v>0.70931613000000004</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="27">
         <v>8.5145299999999993E-3</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="28">
         <v>13.230092089999999</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="26">
         <v>1.40166445</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <v>13.46717583</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="26">
         <v>1.0654460100000001</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="26">
         <v>16.39270084</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="26">
         <v>1.4419982899999999</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="26">
         <v>3.86999819</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="26">
         <v>0.35087611000000002</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="26">
         <v>2.4873158399999999</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="29">
         <v>0.64285292999999999</v>
       </c>
     </row>
-    <row r="8" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="22" t="s">
+    <row r="8" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="30">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="31">
         <v>3.5939260000000001E-2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="31">
         <v>0.50572912999999997</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="31">
         <v>2.816747E-2</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="31">
         <v>0.75288732000000003</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="31">
         <v>2.2134109999999999E-2</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="31">
         <v>0.80600048000000002</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="31">
         <v>2.1198270000000002E-2</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="31">
         <v>0.70647369000000004</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="32">
         <v>9.3737100000000004E-3</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="33">
         <v>12.474200870000001</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="31">
         <v>1.33951961</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="31">
         <v>13.733639480000001</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="31">
         <v>0.99355249000000001</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="34">
         <v>15.51998083</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="31">
         <v>9.3877683800000007</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="31">
         <v>2.6099931199999999</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="35">
         <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="30">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="31">
         <v>3.5939260000000001E-2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="31">
         <v>0.50572912999999997</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="31">
         <v>2.816747E-2</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="31">
         <v>0.75288732000000003</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="31">
         <v>2.2134109999999999E-2</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="31">
         <v>0.80600048000000002</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="31">
         <v>2.1198270000000002E-2</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="31">
         <v>0.70647369000000004</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="32">
         <v>9.3737100000000004E-3</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="33">
         <v>12.474200870000001</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="31">
         <v>1.33951961</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="31">
         <v>13.733639480000001</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="31">
         <v>0.99355249000000001</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="34">
         <v>15.51998083</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="31">
         <v>9.3877683800000007</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="31">
         <v>2.6099931199999999</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="35">
         <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="10" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="22" t="s">
+    <row r="10" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="36">
         <v>0.52435980999999998</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="31">
         <v>3.6377159999999999E-2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="31">
         <v>0.50484245000000005</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="31">
         <v>2.8636640000000001E-2</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="31">
         <v>0.75236378000000004</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="31">
         <v>2.2545539999999999E-2</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="31">
         <v>0.80598696000000003</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="31">
         <v>2.1215399999999999E-2</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="31">
         <v>0.70662893999999998</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="32">
         <v>9.4203499999999992E-3</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="33">
         <v>12.500025770000001</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="31">
         <v>1.4315571300000001</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="31">
         <v>13.751179130000001</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="31">
         <v>1.0025331099999999</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="34">
         <v>15.666193440000001</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="31">
         <v>9.5168473299999992</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="31">
         <v>2.55587162</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="35">
         <v>0.60623450999999995</v>
       </c>
     </row>
-    <row r="11" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="22" t="s">
+    <row r="11" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="30">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="31">
         <v>3.5939260000000001E-2</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="31">
         <v>0.50572912999999997</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="31">
         <v>2.816747E-2</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="31">
         <v>0.75288732000000003</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="31">
         <v>2.2134109999999999E-2</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="31">
         <v>0.80600048000000002</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="31">
         <v>2.1198270000000002E-2</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="31">
         <v>0.70647369000000004</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="32">
         <v>9.3737100000000004E-3</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="33">
         <v>12.474200870000001</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="31">
         <v>1.33951961</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="31">
         <v>13.733639480000001</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="31">
         <v>0.99355249000000001</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="34">
         <v>15.51998083</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="31">
         <v>9.3877683800000007</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="31">
         <v>2.6099931199999999</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="35">
         <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="22" t="s">
+    <row r="12" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="30">
         <v>0.52617051000000004</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="31">
         <v>3.634979E-2</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="31">
         <v>0.50163913999999998</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="31">
         <v>2.4399239999999999E-2</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="31">
         <v>0.75053376999999999</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="31">
         <v>2.1395290000000001E-2</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="31">
         <v>0.80567182999999998</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="31">
         <v>2.1284919999999999E-2</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="31">
         <v>0.70766766999999997</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="32">
         <v>9.2426699999999997E-3</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="33">
         <v>12.80530819</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="31">
         <v>1.42270242</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="31">
         <v>13.4684689</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="31">
         <v>0.94886535999999999</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="31">
         <v>17.02282155</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="31">
         <v>9.6344977299999996</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="31">
         <v>3.9094430600000001</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="31">
         <v>0.34096184000000002</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="31">
         <v>2.53226482</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="35">
         <v>0.62260331000000002</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="22" t="s">
+    <row r="13" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="30">
         <v>0.52617051000000004</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="31">
         <v>3.634979E-2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="31">
         <v>0.50163913999999998</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="31">
         <v>2.4399239999999999E-2</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="31">
         <v>0.75053376999999999</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="31">
         <v>2.1395290000000001E-2</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="31">
         <v>0.80567182999999998</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="31">
         <v>2.1284919999999999E-2</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="31">
         <v>0.70766766999999997</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="32">
         <v>9.2426699999999997E-3</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="33">
         <v>12.80530819</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="31">
         <v>1.42270242</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="31">
         <v>13.4684689</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="31">
         <v>0.94886535999999999</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="31">
         <v>17.02282155</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="31">
         <v>9.6344977299999996</v>
       </c>
-      <c r="U13" s="24">
+      <c r="U13" s="31">
         <v>3.9094430600000001</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="31">
         <v>0.34096184000000002</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W13" s="31">
         <v>2.53226482</v>
       </c>
-      <c r="X13" s="26">
+      <c r="X13" s="35">
         <v>0.62260331000000002</v>
       </c>
     </row>
-    <row r="14" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="22" t="s">
+    <row r="14" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="30">
         <v>0.52617051000000004</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="31">
         <v>3.634979E-2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="31">
         <v>0.50163913999999998</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="31">
         <v>2.4399239999999999E-2</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="31">
         <v>0.75053376999999999</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="31">
         <v>2.1395290000000001E-2</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="31">
         <v>0.80567182999999998</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="31">
         <v>2.1284919999999999E-2</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="31">
         <v>0.70766766999999997</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="32">
         <v>9.2426699999999997E-3</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="33">
         <v>12.80530819</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="31">
         <v>1.42270242</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="31">
         <v>13.4684689</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="31">
         <v>0.94886535999999999</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="31">
         <v>17.02282155</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="31">
         <v>9.6344977299999996</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="31">
         <v>3.9094430600000001</v>
       </c>
-      <c r="V14" s="24">
+      <c r="V14" s="31">
         <v>0.34096184000000002</v>
       </c>
-      <c r="W14" s="24">
+      <c r="W14" s="31">
         <v>2.53226482</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="35">
         <v>0.62260331000000002</v>
       </c>
     </row>
-    <row r="15" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="22" t="s">
+    <row r="15" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="30">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="31">
         <v>3.5939260000000001E-2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="31">
         <v>0.50572912999999997</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="31">
         <v>2.816747E-2</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="31">
         <v>0.75288732000000003</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="31">
         <v>2.2134109999999999E-2</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="31">
         <v>0.80600048000000002</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="31">
         <v>2.1198270000000002E-2</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="31">
         <v>0.70647369000000004</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="32">
         <v>9.3737100000000004E-3</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="33">
         <v>12.474200870000001</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="31">
         <v>1.33951961</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="31">
         <v>13.733639480000001</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="31">
         <v>0.99355249000000001</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="34">
         <v>15.51998083</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="31">
         <v>9.3877683800000007</v>
       </c>
-      <c r="U15" s="24">
+      <c r="U15" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V15" s="24">
+      <c r="V15" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W15" s="24">
+      <c r="W15" s="31">
         <v>2.6099931199999999</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="35">
         <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="16" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="22" t="s">
+    <row r="16" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="30">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="31">
         <v>3.5939260000000001E-2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="31">
         <v>0.50572912999999997</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="31">
         <v>2.816747E-2</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="31">
         <v>0.75288732000000003</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="31">
         <v>2.2134109999999999E-2</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="31">
         <v>0.80600048000000002</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="31">
         <v>2.1198270000000002E-2</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="31">
         <v>0.70647369000000004</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="32">
         <v>9.3737100000000004E-3</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="33">
         <v>12.474200870000001</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="31">
         <v>1.33951961</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="31">
         <v>13.733639480000001</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="31">
         <v>0.99355249000000001</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="34">
         <v>15.51998083</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="31">
         <v>9.3877683800000007</v>
       </c>
-      <c r="U16" s="24">
+      <c r="U16" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V16" s="24">
+      <c r="V16" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W16" s="24">
+      <c r="W16" s="31">
         <v>2.6099931199999999</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="35">
         <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="17" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="22" t="s">
+    <row r="17" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="30">
         <v>0.52619612999999998</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="31">
         <v>3.5939260000000001E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="31">
         <v>0.50572912999999997</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="31">
         <v>2.816747E-2</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="31">
         <v>0.75288732000000003</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="31">
         <v>2.2134109999999999E-2</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="31">
         <v>0.80600048000000002</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="31">
         <v>2.1198270000000002E-2</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="31">
         <v>0.70647369000000004</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="32">
         <v>9.3737100000000004E-3</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="33">
         <v>12.474200870000001</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="31">
         <v>1.33951961</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="31">
         <v>13.733639480000001</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="31">
         <v>0.99355249000000001</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="34">
         <v>15.51998083</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="31">
         <v>9.3877683800000007</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="31">
         <v>2.6099931199999999</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="35">
         <v>0.62284501000000003</v>
       </c>
     </row>
-    <row r="18" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="22" t="s">
+    <row r="18" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="36">
         <v>0.52423215999999995</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="31">
         <v>3.5511420000000002E-2</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="31">
         <v>0.50606633000000001</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="31">
         <v>2.8109450000000001E-2</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="31">
         <v>0.74971580000000004</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="31">
         <v>2.1768740000000002E-2</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="31">
         <v>0.80604909000000002</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="31">
         <v>2.1407249999999999E-2</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="31">
         <v>0.70727633999999995</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="32">
         <v>9.43658E-3</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="33">
         <v>12.384133289999999</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="31">
         <v>1.3539729</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="31">
         <v>13.54907079</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="31">
         <v>1.01127678</v>
       </c>
-      <c r="S18" s="24">
+      <c r="S18" s="31">
         <v>16.64851951</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="31">
         <v>9.2155736699999995</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="31">
         <v>2.4943710800000001</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18" s="35">
         <v>0.61490886</v>
       </c>
     </row>
-    <row r="19" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="22" t="s">
+    <row r="19" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="36">
         <v>0.52423215999999995</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="31">
         <v>3.5511420000000002E-2</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="31">
         <v>0.50606633000000001</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="31">
         <v>2.8109450000000001E-2</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="31">
         <v>0.74971580000000004</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="31">
         <v>2.1768740000000002E-2</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="31">
         <v>0.80604909000000002</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="31">
         <v>2.1407249999999999E-2</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="31">
         <v>0.70727633999999995</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="32">
         <v>9.43658E-3</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="33">
         <v>12.384133289999999</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="31">
         <v>1.3539729</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="31">
         <v>13.54907079</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="31">
         <v>1.01127678</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="31">
         <v>16.64851951</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="31">
         <v>9.2155736699999995</v>
       </c>
-      <c r="U19" s="24">
+      <c r="U19" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="31">
         <v>2.4943710800000001</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="35">
         <v>0.61490886</v>
       </c>
     </row>
-    <row r="20" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="22" t="s">
+    <row r="20" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="36">
         <v>0.52423215999999995</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="31">
         <v>3.5511420000000002E-2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="31">
         <v>0.50606633000000001</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="31">
         <v>2.8109450000000001E-2</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="31">
         <v>0.74971580000000004</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="31">
         <v>2.1768740000000002E-2</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="31">
         <v>0.80604909000000002</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="31">
         <v>2.1407249999999999E-2</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="31">
         <v>0.70727633999999995</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="32">
         <v>9.43658E-3</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="33">
         <v>12.384133289999999</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="31">
         <v>1.3539729</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="31">
         <v>13.54907079</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="31">
         <v>1.01127678</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="31">
         <v>16.64851951</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="31">
         <v>9.2155736699999995</v>
       </c>
-      <c r="U20" s="24">
+      <c r="U20" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V20" s="24">
+      <c r="V20" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W20" s="24">
+      <c r="W20" s="31">
         <v>2.4943710800000001</v>
       </c>
-      <c r="X20" s="26">
+      <c r="X20" s="35">
         <v>0.61490886</v>
       </c>
     </row>
-    <row r="21" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="22" t="s">
+    <row r="21" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="36">
         <v>0.52435980999999998</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="31">
         <v>3.6377159999999999E-2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="31">
         <v>0.50484245000000005</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="31">
         <v>2.8636640000000001E-2</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="31">
         <v>0.75236378000000004</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="31">
         <v>2.2545539999999999E-2</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="31">
         <v>0.80598696000000003</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="31">
         <v>2.1215399999999999E-2</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="31">
         <v>0.70662893999999998</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="32">
         <v>9.4203499999999992E-3</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="33">
         <v>12.500025770000001</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="31">
         <v>1.4315571300000001</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="31">
         <v>13.751179130000001</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="31">
         <v>1.0025331099999999</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="34">
         <v>15.666193440000001</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="31">
         <v>9.5168473299999992</v>
       </c>
-      <c r="U21" s="24">
+      <c r="U21" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V21" s="24">
+      <c r="V21" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W21" s="24">
+      <c r="W21" s="31">
         <v>2.55587162</v>
       </c>
-      <c r="X21" s="26">
+      <c r="X21" s="35">
         <v>0.60623450999999995</v>
       </c>
     </row>
-    <row r="22" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="22" t="s">
+    <row r="22" spans="4:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="36">
         <v>0.52423215999999995</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="31">
         <v>3.5511420000000002E-2</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="31">
         <v>0.50608039000000005</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="31">
         <v>2.8111319999999999E-2</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="31">
         <v>0.74971580000000004</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="31">
         <v>2.1768740000000002E-2</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="31">
         <v>0.80604951999999996</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="31">
         <v>2.1407269999999999E-2</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="31">
         <v>0.70728765000000005</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="32">
         <v>9.43512E-3</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="33">
         <v>12.384133289999999</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="31">
         <v>1.3539729</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="31">
         <v>13.545274839999999</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="31">
         <v>1.0126843400000001</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="31">
         <v>16.64851951</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="31">
         <v>9.2155736699999995</v>
       </c>
-      <c r="U22" s="24">
+      <c r="U22" s="31">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="31">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="31">
         <v>2.4943710800000001</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="35">
         <v>0.61490886</v>
       </c>
     </row>
-    <row r="23" spans="4:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="27" t="s">
+    <row r="23" spans="4:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="37">
         <v>0.52435980999999998</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="38">
         <v>3.6377159999999999E-2</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="38">
         <v>0.50484245000000005</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="38">
         <v>2.8636640000000001E-2</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="38">
         <v>0.75236378000000004</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="38">
         <v>2.2545539999999999E-2</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="38">
         <v>0.80598696000000003</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="38">
         <v>2.1215399999999999E-2</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="38">
         <v>0.70662893999999998</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="39">
         <v>9.4203499999999992E-3</v>
       </c>
       <c r="O23" s="40">
         <v>12.500025770000001</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="38">
         <v>1.4315571300000001</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="38">
         <v>13.751179130000001</v>
       </c>
-      <c r="R23" s="29">
+      <c r="R23" s="38">
         <v>1.0025331099999999</v>
       </c>
-      <c r="S23" s="42">
+      <c r="S23" s="41">
         <v>15.666193440000001</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="38">
         <v>9.5168473299999992</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="38">
         <v>3.8836088000000002</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="38">
         <v>0.34290335999999999</v>
       </c>
-      <c r="W23" s="29">
+      <c r="W23" s="38">
         <v>2.55587162</v>
       </c>
-      <c r="X23" s="31">
+      <c r="X23" s="42">
         <v>0.60623450999999995</v>
       </c>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.25">
       <c r="W28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O4:X4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -2202,8 +2197,6 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
